--- a/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y2/L1_23,28_14_AVY2.xlsx
+++ b/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y2/L1_23,28_14_AVY2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 23^J28 - Abtriebswelle 14 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="11_AD4DB114E441178AC67DF434E6D6C60A683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A28A8A5-9C3D-4B1E-BA94-6FD8A588D134}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -428,11 +422,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -645,9 +639,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -684,6 +675,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -780,7 +777,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -957,24 +954,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K47" sqref="K47"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="4" width="16.54296875" customWidth="1"/>
     <col min="5" max="5" width="29.54296875" customWidth="1"/>
@@ -993,47 +990,47 @@
     <col min="19" max="19" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:20" ht="21">
+      <c r="A1" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="52" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="47" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="34"/>
       <c r="H2" s="10"/>
       <c r="I2" s="8"/>
@@ -1049,7 +1046,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>62</v>
       </c>
@@ -1111,7 +1108,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="43.5">
       <c r="A4" s="1"/>
       <c r="B4" s="39"/>
       <c r="C4" s="2"/>
@@ -1145,7 +1142,7 @@
       </c>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20">
       <c r="A5" s="22"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1175,7 +1172,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1205,7 +1202,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="24"/>
     </row>
-    <row r="7" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="29">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1257,11 +1254,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <v>2</v>
       </c>
       <c r="C8" s="5">
@@ -1273,7 +1270,7 @@
       <c r="E8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="38"/>
@@ -1291,11 +1288,13 @@
       <c r="S8" s="7"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="57">
+        <v>3</v>
+      </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
@@ -1325,7 +1324,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="44" thickBot="1">
       <c r="A10" s="22"/>
       <c r="B10" s="42"/>
       <c r="C10" s="7"/>
@@ -1355,7 +1354,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="43.5">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1407,11 +1406,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="43">
         <v>2</v>
       </c>
       <c r="C12" s="5">
@@ -1423,7 +1422,7 @@
       <c r="E12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="38"/>
@@ -1441,11 +1440,13 @@
       <c r="S12" s="7"/>
       <c r="T12" s="24"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20">
       <c r="A13" s="22">
         <v>1</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="58">
+        <v>3</v>
+      </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
@@ -1475,11 +1476,13 @@
       <c r="S13" s="7"/>
       <c r="T13" s="24"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="57">
+        <v>3</v>
+      </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
@@ -1509,7 +1512,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="24"/>
     </row>
-    <row r="15" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="29.5" thickBot="1">
       <c r="A15" s="22"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1539,7 +1542,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="24"/>
     </row>
-    <row r="16" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="29">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1591,11 +1594,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="43">
         <v>2</v>
       </c>
       <c r="C17" s="5">
@@ -1607,7 +1610,7 @@
       <c r="E17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="38"/>
@@ -1625,11 +1628,13 @@
       <c r="S17" s="7"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20">
       <c r="A18" s="22">
         <v>1</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="58">
+        <v>3</v>
+      </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
@@ -1659,11 +1664,13 @@
       <c r="S18" s="7"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20">
       <c r="A19" s="22">
         <v>2</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="58">
+        <v>3</v>
+      </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
@@ -1693,11 +1700,13 @@
       <c r="S19" s="7"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="29.5" thickBot="1">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="57">
+        <v>3</v>
+      </c>
       <c r="C20" s="5">
         <v>8</v>
       </c>
@@ -1727,7 +1736,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="29.5" thickBot="1">
       <c r="A21" s="22"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1757,7 +1766,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="29">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1809,11 +1818,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="43">
         <v>2</v>
       </c>
       <c r="C23" s="5">
@@ -1825,7 +1834,7 @@
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="38"/>
@@ -1843,11 +1852,13 @@
       <c r="S23" s="7"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20">
       <c r="A24" s="22">
         <v>1</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="58">
+        <v>3</v>
+      </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
@@ -1877,11 +1888,13 @@
       <c r="S24" s="7"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20">
       <c r="A25" s="22">
         <v>2</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="58">
+        <v>3</v>
+      </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
@@ -1911,11 +1924,13 @@
       <c r="S25" s="7"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="29.5" thickBot="1">
       <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="57">
+        <v>3</v>
+      </c>
       <c r="C26" s="5">
         <v>8</v>
       </c>
@@ -1945,7 +1960,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="24"/>
     </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="22"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1975,7 +1990,7 @@
       <c r="S27" s="7"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="29">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2029,11 +2044,11 @@
       </c>
       <c r="T28" s="24"/>
     </row>
-    <row r="29" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="29.5" thickBot="1">
       <c r="A29" s="4">
         <v>2</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="43">
         <v>2</v>
       </c>
       <c r="C29" s="5">
@@ -2045,7 +2060,7 @@
       <c r="E29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="38"/>
@@ -2069,11 +2084,13 @@
       </c>
       <c r="T29" s="24"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20">
       <c r="A30" s="22">
         <v>1</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="58">
+        <v>3</v>
+      </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
@@ -2103,11 +2120,13 @@
       <c r="S30" s="7"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20">
       <c r="A31" s="22">
         <v>2</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="58">
+        <v>3</v>
+      </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
@@ -2137,11 +2156,13 @@
       <c r="S31" s="7"/>
       <c r="T31" s="24"/>
     </row>
-    <row r="32" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="29.5" thickBot="1">
       <c r="A32" s="4">
         <v>3</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="57">
+        <v>3</v>
+      </c>
       <c r="C32" s="5">
         <v>8</v>
       </c>
@@ -2171,7 +2192,7 @@
       <c r="S32" s="7"/>
       <c r="T32" s="24"/>
     </row>
-    <row r="33" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="43.5">
       <c r="A33" s="22"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2201,7 +2222,7 @@
       <c r="S33" s="7"/>
       <c r="T33" s="24"/>
     </row>
-    <row r="34" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="22"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2231,7 +2252,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="24"/>
     </row>
-    <row r="35" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="29">
       <c r="A35" s="22"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2261,7 +2282,7 @@
       <c r="S35" s="7"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="15" thickBot="1">
       <c r="A36" s="22"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2291,7 +2312,7 @@
       <c r="S36" s="7"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="43.5">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2343,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20">
       <c r="A38" s="22">
         <v>2</v>
       </c>
@@ -2377,11 +2398,11 @@
       <c r="S38" s="7"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="15" thickBot="1">
       <c r="A39" s="4">
         <v>3</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="43">
         <v>2</v>
       </c>
       <c r="C39" s="5">
@@ -2390,10 +2411,10 @@
       <c r="D39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="38"/>
@@ -2411,11 +2432,13 @@
       <c r="S39" s="7"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="29.5" thickBot="1">
       <c r="A40" s="4">
         <v>1</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="57">
+        <v>3</v>
+      </c>
       <c r="C40" s="5">
         <v>1</v>
       </c>
@@ -2445,7 +2468,7 @@
       <c r="S40" s="7"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="43.5">
       <c r="A41" s="22"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2475,7 +2498,7 @@
       <c r="S41" s="7"/>
       <c r="T41" s="24"/>
     </row>
-    <row r="42" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="43.5">
       <c r="A42" s="22"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2505,7 +2528,7 @@
       <c r="S42" s="7"/>
       <c r="T42" s="24"/>
     </row>
-    <row r="43" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="43.5">
       <c r="A43" s="22"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2535,7 +2558,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="24"/>
     </row>
-    <row r="44" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="43.5">
       <c r="A44" s="22"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2565,7 +2588,7 @@
       <c r="S44" s="7"/>
       <c r="T44" s="24"/>
     </row>
-    <row r="45" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="43.5">
       <c r="A45" s="22"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2595,7 +2618,7 @@
       <c r="S45" s="7"/>
       <c r="T45" s="24"/>
     </row>
-    <row r="46" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="43.5">
       <c r="A46" s="22"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2625,7 +2648,7 @@
       <c r="S46" s="7"/>
       <c r="T46" s="24"/>
     </row>
-    <row r="47" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="44" thickBot="1">
       <c r="A47" s="22"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2655,7 +2678,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="29">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -2707,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20">
       <c r="A49" s="22">
         <v>2</v>
       </c>
@@ -2741,11 +2764,11 @@
       <c r="S49" s="7"/>
       <c r="T49" s="24"/>
     </row>
-    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="15" thickBot="1">
       <c r="A50" s="4">
         <v>3</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="43">
         <v>2</v>
       </c>
       <c r="C50" s="5">
@@ -2754,10 +2777,10 @@
       <c r="D50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="45" t="s">
+      <c r="F50" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G50" s="38"/>
@@ -2775,11 +2798,13 @@
       <c r="S50" s="7"/>
       <c r="T50" s="24"/>
     </row>
-    <row r="51" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="29">
       <c r="A51" s="22">
         <v>1</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="58">
+        <v>3</v>
+      </c>
       <c r="C51" s="7">
         <v>1</v>
       </c>
@@ -2809,11 +2834,13 @@
       <c r="S51" s="7"/>
       <c r="T51" s="24"/>
     </row>
-    <row r="52" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="29.5" thickBot="1">
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="57">
+        <v>3</v>
+      </c>
       <c r="C52" s="5">
         <v>2</v>
       </c>
@@ -2843,7 +2870,7 @@
       <c r="S52" s="7"/>
       <c r="T52" s="24"/>
     </row>
-    <row r="53" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="29.5" thickBot="1">
       <c r="A53" s="22"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2873,7 +2900,7 @@
       <c r="S53" s="7"/>
       <c r="T53" s="24"/>
     </row>
-    <row r="54" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="43.5">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -2925,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20">
       <c r="A55" s="22">
         <v>2</v>
       </c>
@@ -2959,11 +2986,11 @@
       <c r="S55" s="7"/>
       <c r="T55" s="24"/>
     </row>
-    <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" ht="15" thickBot="1">
       <c r="A56" s="4">
         <v>3</v>
       </c>
-      <c r="B56" s="44">
+      <c r="B56" s="43">
         <v>2</v>
       </c>
       <c r="C56" s="5">
@@ -2972,10 +2999,10 @@
       <c r="D56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="45" t="s">
+      <c r="F56" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G56" s="38"/>
@@ -2993,11 +3020,13 @@
       <c r="S56" s="7"/>
       <c r="T56" s="24"/>
     </row>
-    <row r="57" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" ht="29">
       <c r="A57" s="22">
         <v>1</v>
       </c>
-      <c r="B57" s="42"/>
+      <c r="B57" s="58">
+        <v>3</v>
+      </c>
       <c r="C57" s="7">
         <v>1</v>
       </c>
@@ -3027,11 +3056,13 @@
       <c r="S57" s="7"/>
       <c r="T57" s="24"/>
     </row>
-    <row r="58" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" ht="29.5" thickBot="1">
       <c r="A58" s="4">
         <v>2</v>
       </c>
-      <c r="B58" s="44"/>
+      <c r="B58" s="57">
+        <v>3</v>
+      </c>
       <c r="C58" s="5">
         <v>2</v>
       </c>
@@ -3061,7 +3092,7 @@
       <c r="S58" s="7"/>
       <c r="T58" s="24"/>
     </row>
-    <row r="59" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" ht="44" thickBot="1">
       <c r="A59" s="22"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3091,7 +3122,7 @@
       <c r="S59" s="7"/>
       <c r="T59" s="24"/>
     </row>
-    <row r="60" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" ht="43.5">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -3143,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20">
       <c r="A61" s="22">
         <v>2</v>
       </c>
@@ -3177,11 +3208,11 @@
       <c r="S61" s="7"/>
       <c r="T61" s="24"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="15" thickBot="1">
       <c r="A62" s="4">
         <v>3</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B62" s="43">
         <v>2</v>
       </c>
       <c r="C62" s="5">
@@ -3190,10 +3221,10 @@
       <c r="D62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F62" s="45" t="s">
+      <c r="F62" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G62" s="38"/>
@@ -3211,11 +3242,13 @@
       <c r="S62" s="7"/>
       <c r="T62" s="24"/>
     </row>
-    <row r="63" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="29">
       <c r="A63" s="22">
         <v>1</v>
       </c>
-      <c r="B63" s="42"/>
+      <c r="B63" s="58">
+        <v>3</v>
+      </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
@@ -3245,11 +3278,13 @@
       <c r="S63" s="7"/>
       <c r="T63" s="24"/>
     </row>
-    <row r="64" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" ht="29.5" thickBot="1">
       <c r="A64" s="4">
         <v>2</v>
       </c>
-      <c r="B64" s="44"/>
+      <c r="B64" s="57">
+        <v>3</v>
+      </c>
       <c r="C64" s="5">
         <v>2</v>
       </c>
@@ -3279,7 +3314,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="24"/>
     </row>
-    <row r="65" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="43.5">
       <c r="A65" s="22"/>
       <c r="B65" s="41"/>
       <c r="C65" s="7"/>
@@ -3309,7 +3344,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="24"/>
     </row>
-    <row r="66" spans="1:20" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" ht="73" thickBot="1">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>

--- a/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y2/L1_23,28_14_AVY2.xlsx
+++ b/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y2/L1_23,28_14_AVY2.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\SFU\i = 23,28 - Abtriebswelle 14 - Geber AV Y2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CA335-95FC-487F-A1F6-45297D696A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -422,11 +428,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +649,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,15 +688,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,83 +960,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="29.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="28.26953125" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" customWidth="1"/>
-    <col min="12" max="12" width="65.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="1" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="65.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" customWidth="1"/>
-    <col min="18" max="18" width="23.7265625" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="18" max="18" width="23.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="51" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="46" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="48" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="34"/>
       <c r="H2" s="10"/>
       <c r="I2" s="8"/>
@@ -1046,7 +1049,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>62</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="43.5">
+    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="39"/>
       <c r="C4" s="2"/>
@@ -1142,7 +1145,7 @@
       </c>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1172,7 +1175,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1202,7 +1205,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="24"/>
     </row>
-    <row r="7" spans="1:20" ht="29">
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1288,11 +1291,11 @@
       <c r="S8" s="7"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="5">
@@ -1324,7 +1327,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" ht="44" thickBot="1">
+    <row r="10" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="42"/>
       <c r="C10" s="7"/>
@@ -1354,7 +1357,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" ht="43.5">
+    <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1440,11 +1443,11 @@
       <c r="S12" s="7"/>
       <c r="T12" s="24"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>1</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="47">
         <v>3</v>
       </c>
       <c r="C13" s="7">
@@ -1476,11 +1479,11 @@
       <c r="S13" s="7"/>
       <c r="T13" s="24"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="46">
         <v>3</v>
       </c>
       <c r="C14" s="5">
@@ -1512,7 +1515,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="24"/>
     </row>
-    <row r="15" spans="1:20" ht="29.5" thickBot="1">
+    <row r="15" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1542,7 +1545,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="24"/>
     </row>
-    <row r="16" spans="1:20" ht="29">
+    <row r="16" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1">
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1628,11 +1631,11 @@
       <c r="S17" s="7"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>1</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="47">
         <v>3</v>
       </c>
       <c r="C18" s="7">
@@ -1664,11 +1667,11 @@
       <c r="S18" s="7"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>2</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="47">
         <v>3</v>
       </c>
       <c r="C19" s="7">
@@ -1700,11 +1703,11 @@
       <c r="S19" s="7"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" ht="29.5" thickBot="1">
+    <row r="20" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="46">
         <v>3</v>
       </c>
       <c r="C20" s="5">
@@ -1736,7 +1739,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20" ht="29.5" thickBot="1">
+    <row r="21" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1766,7 +1769,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" ht="29">
+    <row r="22" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1">
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -1852,11 +1855,11 @@
       <c r="S23" s="7"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>1</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="47">
         <v>3</v>
       </c>
       <c r="C24" s="7">
@@ -1888,11 +1891,11 @@
       <c r="S24" s="7"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>2</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="47">
         <v>3</v>
       </c>
       <c r="C25" s="7">
@@ -1924,11 +1927,11 @@
       <c r="S25" s="7"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" ht="29.5" thickBot="1">
+    <row r="26" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="46">
         <v>3</v>
       </c>
       <c r="C26" s="5">
@@ -1960,7 +1963,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="24"/>
     </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1">
+    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1990,7 +1993,7 @@
       <c r="S27" s="7"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" spans="1:20" ht="29">
+    <row r="28" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2044,7 +2047,7 @@
       </c>
       <c r="T28" s="24"/>
     </row>
-    <row r="29" spans="1:20" ht="29.5" thickBot="1">
+    <row r="29" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -2084,11 +2087,11 @@
       </c>
       <c r="T29" s="24"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>1</v>
       </c>
-      <c r="B30" s="58">
+      <c r="B30" s="47">
         <v>3</v>
       </c>
       <c r="C30" s="7">
@@ -2120,11 +2123,11 @@
       <c r="S30" s="7"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>2</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="47">
         <v>3</v>
       </c>
       <c r="C31" s="7">
@@ -2156,11 +2159,11 @@
       <c r="S31" s="7"/>
       <c r="T31" s="24"/>
     </row>
-    <row r="32" spans="1:20" ht="29.5" thickBot="1">
+    <row r="32" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>3</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="46">
         <v>3</v>
       </c>
       <c r="C32" s="5">
@@ -2192,7 +2195,7 @@
       <c r="S32" s="7"/>
       <c r="T32" s="24"/>
     </row>
-    <row r="33" spans="1:20" ht="43.5">
+    <row r="33" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2222,7 +2225,7 @@
       <c r="S33" s="7"/>
       <c r="T33" s="24"/>
     </row>
-    <row r="34" spans="1:20" ht="29">
+    <row r="34" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2252,7 +2255,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="24"/>
     </row>
-    <row r="35" spans="1:20" ht="29">
+    <row r="35" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2282,7 +2285,7 @@
       <c r="S35" s="7"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1">
+    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="22"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2312,7 +2315,7 @@
       <c r="S36" s="7"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" spans="1:20" ht="43.5">
+    <row r="37" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <v>2</v>
       </c>
@@ -2398,7 +2401,7 @@
       <c r="S38" s="7"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" spans="1:20" ht="15" thickBot="1">
+    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>3</v>
       </c>
@@ -2432,11 +2435,11 @@
       <c r="S39" s="7"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" spans="1:20" ht="29.5" thickBot="1">
+    <row r="40" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>1</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="46">
         <v>3</v>
       </c>
       <c r="C40" s="5">
@@ -2468,7 +2471,7 @@
       <c r="S40" s="7"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" spans="1:20" ht="43.5">
+    <row r="41" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2498,7 +2501,7 @@
       <c r="S41" s="7"/>
       <c r="T41" s="24"/>
     </row>
-    <row r="42" spans="1:20" ht="43.5">
+    <row r="42" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2528,7 +2531,7 @@
       <c r="S42" s="7"/>
       <c r="T42" s="24"/>
     </row>
-    <row r="43" spans="1:20" ht="43.5">
+    <row r="43" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2558,7 +2561,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="24"/>
     </row>
-    <row r="44" spans="1:20" ht="43.5">
+    <row r="44" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2588,7 +2591,7 @@
       <c r="S44" s="7"/>
       <c r="T44" s="24"/>
     </row>
-    <row r="45" spans="1:20" ht="43.5">
+    <row r="45" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2618,7 +2621,7 @@
       <c r="S45" s="7"/>
       <c r="T45" s="24"/>
     </row>
-    <row r="46" spans="1:20" ht="43.5">
+    <row r="46" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2648,7 +2651,7 @@
       <c r="S46" s="7"/>
       <c r="T46" s="24"/>
     </row>
-    <row r="47" spans="1:20" ht="44" thickBot="1">
+    <row r="47" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="22"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2678,7 +2681,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:20" ht="29">
+    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="22">
         <v>2</v>
       </c>
@@ -2764,7 +2767,7 @@
       <c r="S49" s="7"/>
       <c r="T49" s="24"/>
     </row>
-    <row r="50" spans="1:20" ht="15" thickBot="1">
+    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>3</v>
       </c>
@@ -2798,11 +2801,11 @@
       <c r="S50" s="7"/>
       <c r="T50" s="24"/>
     </row>
-    <row r="51" spans="1:20" ht="29">
+    <row r="51" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="22">
         <v>1</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="47">
         <v>3</v>
       </c>
       <c r="C51" s="7">
@@ -2834,11 +2837,11 @@
       <c r="S51" s="7"/>
       <c r="T51" s="24"/>
     </row>
-    <row r="52" spans="1:20" ht="29.5" thickBot="1">
+    <row r="52" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="57">
+      <c r="B52" s="46">
         <v>3</v>
       </c>
       <c r="C52" s="5">
@@ -2870,7 +2873,7 @@
       <c r="S52" s="7"/>
       <c r="T52" s="24"/>
     </row>
-    <row r="53" spans="1:20" ht="29.5" thickBot="1">
+    <row r="53" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="22"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2900,7 +2903,7 @@
       <c r="S53" s="7"/>
       <c r="T53" s="24"/>
     </row>
-    <row r="54" spans="1:20" ht="43.5">
+    <row r="54" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="22">
         <v>2</v>
       </c>
@@ -2986,7 +2989,7 @@
       <c r="S55" s="7"/>
       <c r="T55" s="24"/>
     </row>
-    <row r="56" spans="1:20" ht="15" thickBot="1">
+    <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3020,11 +3023,11 @@
       <c r="S56" s="7"/>
       <c r="T56" s="24"/>
     </row>
-    <row r="57" spans="1:20" ht="29">
+    <row r="57" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="22">
         <v>1</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B57" s="47">
         <v>3</v>
       </c>
       <c r="C57" s="7">
@@ -3056,11 +3059,11 @@
       <c r="S57" s="7"/>
       <c r="T57" s="24"/>
     </row>
-    <row r="58" spans="1:20" ht="29.5" thickBot="1">
+    <row r="58" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>2</v>
       </c>
-      <c r="B58" s="57">
+      <c r="B58" s="46">
         <v>3</v>
       </c>
       <c r="C58" s="5">
@@ -3092,7 +3095,7 @@
       <c r="S58" s="7"/>
       <c r="T58" s="24"/>
     </row>
-    <row r="59" spans="1:20" ht="44" thickBot="1">
+    <row r="59" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="22"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3122,7 +3125,7 @@
       <c r="S59" s="7"/>
       <c r="T59" s="24"/>
     </row>
-    <row r="60" spans="1:20" ht="43.5">
+    <row r="60" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
         <v>2</v>
       </c>
@@ -3208,7 +3211,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="24"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1">
+    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>3</v>
       </c>
@@ -3242,11 +3245,11 @@
       <c r="S62" s="7"/>
       <c r="T62" s="24"/>
     </row>
-    <row r="63" spans="1:20" ht="29">
+    <row r="63" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
         <v>1</v>
       </c>
-      <c r="B63" s="58">
+      <c r="B63" s="47">
         <v>3</v>
       </c>
       <c r="C63" s="7">
@@ -3278,11 +3281,11 @@
       <c r="S63" s="7"/>
       <c r="T63" s="24"/>
     </row>
-    <row r="64" spans="1:20" ht="29.5" thickBot="1">
+    <row r="64" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>2</v>
       </c>
-      <c r="B64" s="57">
+      <c r="B64" s="46">
         <v>3</v>
       </c>
       <c r="C64" s="5">
@@ -3314,7 +3317,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="24"/>
     </row>
-    <row r="65" spans="1:20" ht="43.5">
+    <row r="65" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="41"/>
       <c r="C65" s="7"/>
@@ -3344,7 +3347,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="24"/>
     </row>
-    <row r="66" spans="1:20" ht="73" thickBot="1">
+    <row r="66" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
